--- a/InnoLab3/Sprint_Review_Protocol.xlsx
+++ b/InnoLab3/Sprint_Review_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144F411-01ED-4275-92CD-5BFCC157C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED360BA-3CCD-4E00-AD72-22F50A04504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Sprint 10" sheetId="10" r:id="rId10"/>
     <sheet name="Sprint 11" sheetId="11" r:id="rId11"/>
     <sheet name="Sprint 12" sheetId="13" r:id="rId12"/>
+    <sheet name="Sprint 13" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="245">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -746,6 +747,39 @@
   </si>
   <si>
     <t>Vincent: Sehr aufwendig weil die UI sich stark verändern muss, weil man braucht eine TabView. Auch ein Speichern der Diagramme für potentielle neustarts wären praktisch.</t>
+  </si>
+  <si>
+    <t>Alle: InnoLab2 Review</t>
+  </si>
+  <si>
+    <t>Alle: Project Diary + Arbeitspakete neu definieren</t>
+  </si>
+  <si>
+    <t>Alle: Besprechung Project Diary und InnoLab3 Ablauf</t>
+  </si>
+  <si>
+    <t>Alle: Semester/Sprint Planen</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein, UML-Bäume zu speichern, damit ich meinen Fortschritt sichern kann.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich einen Titelbildschirm sehen, wenn ich das Spiel starte.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich meinen Fortschritt jederzeit einsehen können.</t>
+  </si>
+  <si>
+    <t>Florian: Only saving done until now</t>
+  </si>
+  <si>
+    <t>Vincent: UML Scrollbar Bug, Locked Level selectable Bug</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich meinen Playtestern einen Fragebogen zum gesamten Spiel und möglichen zukünftigen Änderungen geben, um umfassendes Feedback zu erhalten.</t>
+  </si>
+  <si>
+    <t>Tobias: Only Questions about the Person done</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B66B8E7-E15B-49E1-A752-1E36803D9CED}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H31" sqref="B31:H32"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3089FD7-A102-4B57-9E28-FAD84BAFA6CE}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,13 +4510,701 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601827F4-4A2B-4E28-A417-19154739B369}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45580</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>4*5</f>
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>20</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E36" si="0">D18-C18</f>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>216</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E23" si="1">D21-C21</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>226</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>232</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>234</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>236</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f>COUNT(A16:A36)</f>
+        <v>5</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6">
+        <f>SUM(C16:C36)</f>
+        <v>28</v>
+      </c>
+      <c r="D37" s="6">
+        <f>SUM(D16:D36)</f>
+        <v>55</v>
+      </c>
+      <c r="E37" s="6">
+        <f>SUM(E16:E36)</f>
+        <v>27</v>
+      </c>
+      <c r="F37" s="6">
+        <f>COUNT(F16:F36)</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="6">
+        <f>COUNT(G16:G36)</f>
+        <v>3</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8481,8 +9203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InnoLab3/Sprint_Review_Protocol.xlsx
+++ b/InnoLab3/Sprint_Review_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED360BA-3CCD-4E00-AD72-22F50A04504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712AF465-E1B1-4E3A-A20F-8628991FF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="13" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Sprint 11" sheetId="11" r:id="rId11"/>
     <sheet name="Sprint 12" sheetId="13" r:id="rId12"/>
     <sheet name="Sprint 13" sheetId="14" r:id="rId13"/>
+    <sheet name="Sprint 14" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="256">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -780,6 +781,39 @@
   </si>
   <si>
     <t>Tobias: Only Questions about the Person done</t>
+  </si>
+  <si>
+    <t>Florian u. Vincent: UML Pfeile ändern damit Laden von Bäumen funktioniert</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein, ein UML-Ablaufdiagramm in einem anderen aufrufen zu können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich verschiedene UML-Ablaufdiagramm definieren können.</t>
+  </si>
+  <si>
+    <t>Tobias: Fragenbogen über die Spielerfahrung</t>
+  </si>
+  <si>
+    <t>Tobi: Einfügen der gekauften Assets. Alle Levels müssen neu gemacht werden da zuvor Blöcke benutzt wurden und keine 2D Sprites</t>
+  </si>
+  <si>
+    <t>Alle: Sprint Planen (Was muss für mehrere UML-Bäume alles geändert werden? Was muss vor Testen fertig sein?)</t>
+  </si>
+  <si>
+    <t>Dominik: UML-Manager zur verwaltun aller Bäume. Erstellung von neuen Bäumen und List aller Bäume. Noch keine Löschen</t>
+  </si>
+  <si>
+    <t>Johann: Eine UML-Element das einen anderen Baum aufruft (Musste auf UML-Manager warten)</t>
+  </si>
+  <si>
+    <t>Vincent: Eigentlich in Sprint 9 erledigt, allerdings musste wegen den neunen Bäumen alles geändert werden. (Musste auf anpassungen von UML Ablauf warten)</t>
+  </si>
+  <si>
+    <t>Vincent: Funktionalität des UML Ablaufes geändert. Nicht mehr Rekusiv sondern alles im Actor. Um besser tracken zu können was gemacht wurde und um Energiekosten bei erneutem Aufruf des selbe UML-Elementes zu verringern</t>
+  </si>
+  <si>
+    <t>Florian: Laden implementiert und Funktionen wurde in UML-Manager verschoben</t>
   </si>
 </sst>
 </file>
@@ -1030,6 +1064,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,12 +1104,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,27 +1125,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1426,28 +1460,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1461,131 +1495,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45236</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1983,12 +2017,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -2003,6 +2031,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2013,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B66B8E7-E15B-49E1-A752-1E36803D9CED}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2030,28 +2064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2065,137 +2099,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45426</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -2211,14 +2245,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2867,6 +2901,1630 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBABFFEE-6777-4F24-9440-1FDDCE2885C6}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="165.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>11</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45439</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E43" si="0">D18-C18</f>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>201</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>203</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>207</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>208</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>209</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>210</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>211</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>212</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>213</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>214</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>215</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>216</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>217</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f>COUNT(A16:A43)</f>
+        <v>13</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <f>SUM(C16:C43)</f>
+        <v>44</v>
+      </c>
+      <c r="D44" s="6">
+        <f>SUM(D16:D43)</f>
+        <v>60</v>
+      </c>
+      <c r="E44" s="6">
+        <f>SUM(E16:E43)</f>
+        <v>16</v>
+      </c>
+      <c r="F44" s="6">
+        <f>COUNT(F16:F43)</f>
+        <v>11</v>
+      </c>
+      <c r="G44" s="6">
+        <f>COUNT(G16:G43)</f>
+        <v>4</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3089FD7-A102-4B57-9E28-FAD84BAFA6CE}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>12</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45454</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E35" si="0">D18-C18</f>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>216</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:E21" si="1">D20-C20</f>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>217</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22" si="2">D22-C22</f>
+        <v>-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>218</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>219</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>220</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>221</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>222</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>223</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f>COUNT(A16:A35)</f>
+        <v>8</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <f>SUM(C16:C35)</f>
+        <v>44</v>
+      </c>
+      <c r="D36" s="6">
+        <f>SUM(D16:D35)</f>
+        <v>60</v>
+      </c>
+      <c r="E36" s="6">
+        <f>SUM(E16:E35)</f>
+        <v>16</v>
+      </c>
+      <c r="F36" s="6">
+        <f>COUNT(F16:F35)</f>
+        <v>7</v>
+      </c>
+      <c r="G36" s="6">
+        <f>COUNT(G16:G35)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -2898,49 +4556,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBABFFEE-6777-4F24-9440-1FDDCE2885C6}">
-  <dimension ref="A1:I45"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601827F4-4A2B-4E28-A417-19154739B369}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="165.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2954,137 +4612,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>13</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45439</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45580</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -3100,14 +4758,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3156,7 +4814,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -3169,47 +4827,47 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>1*5</f>
-        <v>5</v>
+        <f>4*5</f>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <f>D17-C17</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>2*5</f>
-        <v>10</v>
+        <f>1*5</f>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E43" si="0">D18-C18</f>
-        <v>10</v>
+        <f t="shared" ref="E18:E36" si="0">D18-C18</f>
+        <v>5</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="7" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -3225,7 +4883,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3241,98 +4899,113 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="8">
+        <v>216</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E23" si="1">D21-C21</f>
+        <v>4</v>
+      </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>201</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4"/>
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
       <c r="H23" s="7" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8">
+        <v>232</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -3345,932 +5018,27 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>209</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>210</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>211</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>212</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>213</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>214</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>215</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>216</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="7">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="7">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="7">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>217</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f>COUNT(A16:A43)</f>
-        <v>13</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
-        <f>SUM(C16:C43)</f>
-        <v>44</v>
-      </c>
-      <c r="D44" s="6">
-        <f>SUM(D16:D43)</f>
-        <v>60</v>
-      </c>
-      <c r="E44" s="6">
-        <f>SUM(E16:E43)</f>
-        <v>16</v>
-      </c>
-      <c r="F44" s="6">
-        <f>COUNT(F16:F43)</f>
-        <v>11</v>
-      </c>
-      <c r="G44" s="6">
-        <f>COUNT(G16:G43)</f>
-        <v>4</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3089FD7-A102-4B57-9E28-FAD84BAFA6CE}">
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>12</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45454</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <f>D17-C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18:E35" si="0">D18-C18</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>216</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:E21" si="1">D20-C20</f>
-        <v>-1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>217</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22" si="2">D22-C22</f>
-        <v>-2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>218</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>219</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="7">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>220</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="7">
-        <v>4</v>
       </c>
       <c r="D26" s="7">
         <v>4</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>-4</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
       <c r="H26" s="7" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -4289,147 +5057,87 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>221</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>3</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="H28" s="7"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="H29" s="7"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>222</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H30" s="7"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="H31" s="7"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>223</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="7">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="H33" s="7"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4461,36 +5169,50 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <f>COUNT(A16:A35)</f>
-        <v>8</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6">
-        <f>SUM(C16:C35)</f>
-        <v>44</v>
-      </c>
-      <c r="D36" s="6">
-        <f>SUM(D16:D35)</f>
-        <v>60</v>
-      </c>
-      <c r="E36" s="6">
-        <f>SUM(E16:E35)</f>
-        <v>16</v>
-      </c>
-      <c r="F36" s="6">
-        <f>COUNT(F16:F35)</f>
-        <v>7</v>
-      </c>
-      <c r="G36" s="6">
-        <f>COUNT(G16:G35)</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f>COUNT(A16:A36)</f>
+        <v>5</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6">
+        <f>SUM(C16:C36)</f>
+        <v>28</v>
+      </c>
+      <c r="D37" s="6">
+        <f>SUM(D16:D36)</f>
+        <v>55</v>
+      </c>
+      <c r="E37" s="6">
+        <f>SUM(E16:E36)</f>
+        <v>27</v>
+      </c>
+      <c r="F37" s="6">
+        <f>COUNT(F16:F36)</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="6">
+        <f>COUNT(G16:G36)</f>
+        <v>3</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -4522,12 +5244,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601827F4-4A2B-4E28-A417-19154739B369}">
-  <dimension ref="A1:I38"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE67666-653A-4374-9542-208B53669AD2}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,32 +5261,32 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="226" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4578,137 +5300,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45580</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45601</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -4724,14 +5446,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4770,86 +5492,78 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
+        <f>3*5</f>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <f>D16-C16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>4*5</f>
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
-        <f>D17-C17</f>
-        <v>20</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8">
+        <v>216</v>
+      </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>1*5</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E36" si="0">D18-C18</f>
-        <v>5</v>
+        <f t="shared" ref="E18:E22" si="0">D18-C18</f>
+        <v>4</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <f>1*5</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -4858,7 +5572,10 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
@@ -4866,160 +5583,169 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:E23" si="1">D21-C21</f>
-        <v>4</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
         <v>4</v>
       </c>
       <c r="E23" s="2">
+        <f t="shared" ref="E23:E35" si="1">D23-C23</f>
+        <v>-4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>232</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
       <c r="H25" s="7" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C26" s="7">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
-        <v>4</v>
-      </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="8">
+        <v>187</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5028,7 +5754,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
@@ -5042,7 +5768,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
@@ -5056,7 +5782,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30" s="3"/>
@@ -5070,7 +5796,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
@@ -5084,7 +5810,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
@@ -5098,7 +5824,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
@@ -5112,7 +5838,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34" s="3"/>
@@ -5126,7 +5852,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
@@ -5135,69 +5861,42 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="6">
+        <f>COUNT(A16:A35)</f>
+        <v>6</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <f>SUM(C16:C35)</f>
+        <v>42</v>
+      </c>
+      <c r="D36" s="6">
+        <f>SUM(D16:D35)</f>
+        <v>56</v>
+      </c>
+      <c r="E36" s="6">
+        <f>SUM(E16:E35)</f>
+        <v>14</v>
+      </c>
+      <c r="F36" s="6">
+        <f>COUNT(F16:F35)</f>
+        <v>4</v>
+      </c>
+      <c r="G36" s="6">
+        <f>COUNT(G16:G35)</f>
+        <v>3</v>
+      </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <f>COUNT(A16:A36)</f>
-        <v>5</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6">
-        <f>SUM(C16:C36)</f>
-        <v>28</v>
-      </c>
-      <c r="D37" s="6">
-        <f>SUM(D16:D36)</f>
-        <v>55</v>
-      </c>
-      <c r="E37" s="6">
-        <f>SUM(E16:E36)</f>
-        <v>27</v>
-      </c>
-      <c r="F37" s="6">
-        <f>COUNT(F16:F36)</f>
-        <v>2</v>
-      </c>
-      <c r="G37" s="6">
-        <f>COUNT(G16:G36)</f>
-        <v>3</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37">
         <f>12*5</f>
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5205,6 +5904,19 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5231,28 +5943,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5266,131 +5978,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45251</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5735,6 +6447,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5742,19 +6467,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5782,28 +6494,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5817,131 +6529,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45265</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6374,6 +7086,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -6381,19 +7106,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6423,28 +7135,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -6458,131 +7170,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45279</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -7083,6 +7795,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -7090,19 +7815,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7129,28 +7841,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -7164,131 +7876,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45307</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -7834,6 +8546,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -7841,19 +8566,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7883,28 +8595,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -7918,131 +8630,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45320</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8520,6 +9232,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -8527,19 +9252,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8561,28 +9273,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -8596,137 +9308,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45384</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -8742,14 +9454,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9173,6 +9885,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -9180,19 +9905,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9220,28 +9932,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -9255,137 +9967,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45398</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -9401,14 +10113,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10078,6 +10790,1093 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>9</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45412</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>174</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>176</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>183</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>184</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>186</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>187</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>188</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>189</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>190</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>191</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>192</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>193</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>194</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>195</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>196</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>COUNT(A16:A48)</f>
+        <v>20</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
+        <f>SUM(C16:C48)</f>
+        <v>72</v>
+      </c>
+      <c r="D49" s="6">
+        <f>SUM(D16:D48)</f>
+        <v>60</v>
+      </c>
+      <c r="E49" s="6">
+        <f>SUM(E16:E48)</f>
+        <v>-12</v>
+      </c>
+      <c r="F49" s="6">
+        <f>COUNT(F16:F48)</f>
+        <v>16</v>
+      </c>
+      <c r="G49" s="6">
+        <f>COUNT(G16:G48)</f>
+        <v>4</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -10107,1091 +11906,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
-  <dimension ref="A1:I50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45412</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>173</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>174</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>176</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>177</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>169</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="7">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>171</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>172</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>183</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>184</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>187</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>188</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>189</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="7">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>190</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>191</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>192</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>193</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>194</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>195</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>196</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f>COUNT(A16:A48)</f>
-        <v>20</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
-        <f>SUM(C16:C48)</f>
-        <v>72</v>
-      </c>
-      <c r="D49" s="6">
-        <f>SUM(D16:D48)</f>
-        <v>60</v>
-      </c>
-      <c r="E49" s="6">
-        <f>SUM(E16:E48)</f>
-        <v>-12</v>
-      </c>
-      <c r="F49" s="6">
-        <f>COUNT(F16:F48)</f>
-        <v>16</v>
-      </c>
-      <c r="G49" s="6">
-        <f>COUNT(G16:G48)</f>
-        <v>4</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InnoLab3/Sprint_Review_Protocol.xlsx
+++ b/InnoLab3/Sprint_Review_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F43A31-8027-48E8-A4C6-2047FFEED6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D3AAC-5483-4717-87BE-CF2AC3270326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="15" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="16" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Sprint 14" sheetId="15" r:id="rId14"/>
     <sheet name="Sprint 15" sheetId="16" r:id="rId15"/>
     <sheet name="Sprint 16" sheetId="17" r:id="rId16"/>
+    <sheet name="Sprint 17" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="300">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -915,6 +916,39 @@
   </si>
   <si>
     <t>Johann: 4 Tester (Familie und Freunde)</t>
+  </si>
+  <si>
+    <t>Alle: Meeting mit Petz Vorbereiten</t>
+  </si>
+  <si>
+    <t>Johann: finally done</t>
+  </si>
+  <si>
+    <t>Vincent: Grid einfügen</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein, UML-Elemente mit Pfeilen verbinden zu können, um den Ablauf klar erkennen zu können.</t>
+  </si>
+  <si>
+    <t>Florian: Bug beim Laden von UML-Trees (Condition false Pfeile und Loops wurden nicht geladen)</t>
+  </si>
+  <si>
+    <t>Tobias: Tutorial PopUps erstellt. PopUps mit Tutorial PDF befüllt und gegebenenfalls Erklärungen angepasst.</t>
+  </si>
+  <si>
+    <t>Tobias: Musterlösungen für Tutorial Level erstellt</t>
+  </si>
+  <si>
+    <t>Florian: Bug beim Laden von UML-Trees (DropDown values werden nicht richtig geladen)</t>
+  </si>
+  <si>
+    <t>Dominik: Condition Pfeile wurden farbig eingefärbt um sie besser zu erkennen. Außerdem haben jetzt ein leichtes Offset damit bei loops die Pfeile nicht übereinander liegen. (Offset hat länger gedauert da der Zeichen Algorythmus recht verschachtelt ist)</t>
+  </si>
+  <si>
+    <t>Dominik: Halbkreise am Rand der UML Element eingefügt, da man sehr genau drücken musste um einen Pfeil zu zeichnen</t>
+  </si>
+  <si>
+    <t>Dominik: Bug beim Zeichnen von Pfeilen (Pfeile konnten wegen mouse offset nicht nach links oben gezeichnet werden)</t>
   </si>
 </sst>
 </file>
@@ -4661,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601827F4-4A2B-4E28-A417-19154739B369}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5349,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE67666-653A-4374-9542-208B53669AD2}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,8 +6061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFACB17-30AA-4FA3-A364-8FB360FEC531}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6818,8 +6852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE52D18-5970-4508-A9E6-643F960672E2}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7590,13 +7624,952 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DFD856-D8EF-4B0C-95BB-F3C480F218FE}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="236.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45643</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E47" si="0">D18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>216</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>216</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>242</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>202</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>169</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>169</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>226</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>226</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>239</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>240</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>241</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <f>COUNT(A16:A47)</f>
+        <v>11</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6">
+        <f>SUM(C16:C47)</f>
+        <v>40</v>
+      </c>
+      <c r="D48" s="6">
+        <f>SUM(D16:D47)</f>
+        <v>60</v>
+      </c>
+      <c r="E48" s="6">
+        <f>SUM(E16:E47)</f>
+        <v>20</v>
+      </c>
+      <c r="F48" s="6">
+        <f>COUNT(F16:F47)</f>
+        <v>11</v>
+      </c>
+      <c r="G48" s="6">
+        <f>COUNT(G16:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12505,8 +13478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:D41"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
